--- a/invest_output.xlsx
+++ b/invest_output.xlsx
@@ -788,10 +788,10 @@
         <v>131.475</v>
       </c>
       <c r="G13" t="n">
-        <v>105.12</v>
+        <v>106.27</v>
       </c>
       <c r="H13" t="n">
-        <v>533.242</v>
+        <v>534.3919999999999</v>
       </c>
     </row>
   </sheetData>

--- a/invest_output.xlsx
+++ b/invest_output.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -794,6 +794,34 @@
         <v>534.3919999999999</v>
       </c>
     </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2026年1月30日</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="n">
+        <v>122.679</v>
+      </c>
+      <c r="E14" t="n">
+        <v>168.66</v>
+      </c>
+      <c r="F14" t="n">
+        <v>127.7</v>
+      </c>
+      <c r="G14" t="n">
+        <v>106.27</v>
+      </c>
+      <c r="H14" t="n">
+        <v>525.309</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/invest_output.xlsx
+++ b/invest_output.xlsx
@@ -816,10 +816,10 @@
         <v>127.7</v>
       </c>
       <c r="G14" t="n">
-        <v>106.27</v>
+        <v>106.44</v>
       </c>
       <c r="H14" t="n">
-        <v>525.309</v>
+        <v>525.479</v>
       </c>
     </row>
   </sheetData>

--- a/invest_output.xlsx
+++ b/invest_output.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -822,6 +822,34 @@
         <v>525.479</v>
       </c>
     </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2026年2月6日</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="n">
+        <v>122.02</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>122.02</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/invest_output.xlsx
+++ b/invest_output.xlsx
@@ -841,13 +841,13 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>126.12</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>122.02</v>
+        <v>248.14</v>
       </c>
     </row>
   </sheetData>

--- a/invest_output.xlsx
+++ b/invest_output.xlsx
@@ -838,16 +838,16 @@
         <v>122.02</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>169.16</v>
       </c>
       <c r="F15" t="n">
         <v>126.12</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>106.44</v>
       </c>
       <c r="H15" t="n">
-        <v>248.14</v>
+        <v>523.74</v>
       </c>
     </row>
   </sheetData>

--- a/invest_output.xlsx
+++ b/invest_output.xlsx
@@ -844,10 +844,10 @@
         <v>126.12</v>
       </c>
       <c r="G15" t="n">
-        <v>106.44</v>
+        <v>106.05</v>
       </c>
       <c r="H15" t="n">
-        <v>523.74</v>
+        <v>523.35</v>
       </c>
     </row>
   </sheetData>
